--- a/src/test/resources/TestCases_Actitime.xlsx
+++ b/src/test/resources/TestCases_Actitime.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eclipse\AutomationFrameWork-Maven\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eclipse\AutomationFrameWork-Maven\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA9D8D8-3BC3-4EF2-9A9C-98211266BD20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DA0CE9-2957-4B52-984F-01457D691638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>https://www.ubuy.co.in/</t>
   </si>
   <si>
-    <t>Best Online Shopping Store for Electronics, Fashion, Home Improvement &amp; More in India-title should be displayed</t>
-  </si>
-  <si>
     <t>3)Mouse hover account link</t>
   </si>
   <si>
@@ -109,13 +106,16 @@
   </si>
   <si>
     <t>manager</t>
+  </si>
+  <si>
+    <t>Ethnic Wear - Buy Ethnic Wear in Latest Designs Online at Craftsvilla</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,21 +140,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF222222"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="22"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -203,13 +221,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -551,15 +573,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="27" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="40.5703125" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="32.7109375" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="56.28515625" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1" collapsed="1"/>
@@ -592,96 +614,117 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="D7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" t="s">
+      <c r="D8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="7" t="s">
+    </row>
+    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="B12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">

--- a/src/test/resources/TestCases_Actitime.xlsx
+++ b/src/test/resources/TestCases_Actitime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eclipse\AutomationFrameWork-Maven\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DA0CE9-2957-4B52-984F-01457D691638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD2EE54-69A2-4233-BD29-367007C7B3C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Ethnic Wear - Buy Ethnic Wear in Latest Designs Online at Craftsvilla</t>
+  </si>
+  <si>
+    <t>Manu Kakkar</t>
   </si>
 </sst>
 </file>
@@ -573,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,6 +711,9 @@
       </c>
       <c r="B12" s="5" t="s">
         <v>25</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="E12" s="2"/>
     </row>
